--- a/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,45</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-45,3; -4,67</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-17,34; 17,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,5; 5,04</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-36,92%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,99%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-56,26; -8,32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-21,63; 31,95</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,63; 8,43</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,98</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,77; 12,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,15; 5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,96; -8,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,39; -8,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,59; -5,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,41; -7,73</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,87%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,31; 22,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,94; 8,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,72; -9,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,81; -9,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,3; -6,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,91; -9,46</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,85</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; 18,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,09; 7,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,54; 10,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,61; 0,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 7,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,89; -1,92</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,38%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 27,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,74; 9,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 12,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,4; 1,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; 9,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; -2,35</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,27; 2,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,59; 6,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,17; 3,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,43; 5,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 0,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,94; 2,86</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,2%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,12; 3,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; 8,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,0; 4,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,93; 7,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,11; 0,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,1; 3,57</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,02</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,6</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 35,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 30,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 31,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 35,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,77; 27,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 29,96</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,02%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,03; 61,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,35; 48,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 60,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,0; 68,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,91; 46,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 50,12</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,43</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,51; 24,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 30,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 13,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 19,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 12,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 18,8</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,12; 36,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 48,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; 19,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,4; 26,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,35; 16,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 25,45</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,32</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,67</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,48; 9,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,29; -8,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,25; -2,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,49; -10,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 0,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,72; -11,45</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,84%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 11,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,77; -10,45</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; -2,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,87; -11,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 0,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,65; -14,02</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,94</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,36</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,3; 13,45</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,91; 0,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,21; 0,71</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,4; -2,86</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,8; 2,46</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,42; -3,9</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,27%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,32%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,87%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,13; 18,51</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,73; 0,72</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,76; 0,77</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,75; -3,62</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,06; 3,11</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,16; -5,15</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,32</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; 3,94</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; -5,05</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; -0,93</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; -4,14</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; -0,19</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; -6,29</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,23%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,43%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 5,22</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; -6,77</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,19; -1,12</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,37; -5,04</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; -0,24</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,0; -7,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,78; 12,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,57; 26,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,82; 14,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,42; 19,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,05; 49,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,54; 23,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,33</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 2,48</t>
+          <t>-24,14; 6,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 3,28</t>
+          <t>-14,42; 5,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 0,38</t>
+          <t>-14,37; 4,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>-6,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 3,02</t>
+          <t>-27,77; 7,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 4,13</t>
+          <t>-16,19; 6,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 0,31</t>
+          <t>-16,32; 5,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 12,77</t>
+          <t>-29,58; 13,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-45,3; -4,67</t>
+          <t>-46,47; -6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 26,23</t>
+          <t>-8,41; 26,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 17,32</t>
+          <t>-15,4; 20,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 14,43</t>
+          <t>-13,23; 13,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 5,04</t>
+          <t>-22,36; 2,53</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 19,97</t>
+          <t>-36,14; 21,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,26; -8,32</t>
+          <t>-57,21; -12,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 49,34</t>
+          <t>-10,95; 48,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 31,95</t>
+          <t>-19,8; 37,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 23,45</t>
+          <t>-17,28; 22,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 8,43</t>
+          <t>-29,72; 4,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 12,75</t>
+          <t>-20,66; 12,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 5,16</t>
+          <t>-29,25; 7,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,96; -8,31</t>
+          <t>-26,69; -8,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,39; -8,28</t>
+          <t>-25,86; -8,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -5,66</t>
+          <t>-21,19; -5,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -7,73</t>
+          <t>-24,28; -7,64</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 22,5</t>
+          <t>-25,78; 21,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 8,53</t>
+          <t>-36,49; 10,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,72; -9,42</t>
+          <t>-28,13; -9,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,81; -9,43</t>
+          <t>-27,64; -9,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,3; -6,9</t>
+          <t>-23,84; -6,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,91; -9,46</t>
+          <t>-27,73; -10,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 18,63</t>
+          <t>-12,52; 17,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 7,41</t>
+          <t>-25,95; 7,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 10,08</t>
+          <t>-9,04; 9,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 0,96</t>
+          <t>-19,05; 2,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 7,34</t>
+          <t>-8,69; 7,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -1,92</t>
+          <t>-18,58; -1,18</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 27,09</t>
+          <t>-13,9; 25,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 9,52</t>
+          <t>-28,68; 9,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 12,25</t>
+          <t>-9,93; 11,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 1,08</t>
+          <t>-20,91; 2,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 9,16</t>
+          <t>-9,59; 8,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; -2,35</t>
+          <t>-20,95; -1,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 6,13</t>
+          <t>-23,13; 7,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 6,82</t>
+          <t>-21,39; 6,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 5,31</t>
+          <t>-14,89; 6,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 5,88</t>
+          <t>-14,31; 6,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 4,1</t>
+          <t>-14,04; 3,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 2,86</t>
+          <t>-13,5; 3,55</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 7,93</t>
+          <t>-26,5; 10,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 8,95</t>
+          <t>-24,52; 8,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 6,81</t>
+          <t>-16,39; 7,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 7,39</t>
+          <t>-16,22; 8,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 5,28</t>
+          <t>-16,12; 4,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 3,57</t>
+          <t>-15,18; 4,64</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 35,49</t>
+          <t>1,03; 37,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 30,34</t>
+          <t>-13,67; 30,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 31,8</t>
+          <t>0,1; 30,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,12; 35,53</t>
+          <t>5,35; 36,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,77; 27,35</t>
+          <t>4,6; 28,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,46; 29,96</t>
+          <t>3,48; 29,78</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,03; 61,58</t>
+          <t>0,99; 62,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 48,3</t>
+          <t>-15,25; 51,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,36; 60,14</t>
+          <t>0,25; 57,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,0; 68,95</t>
+          <t>7,21; 69,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,91; 46,4</t>
+          <t>6,04; 48,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,52; 50,12</t>
+          <t>5,25; 50,8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 24,2</t>
+          <t>-11,35; 23,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 30,87</t>
+          <t>-3,27; 28,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 13,87</t>
+          <t>-9,33; 15,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 19,17</t>
+          <t>-6,92; 18,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 12,13</t>
+          <t>-6,54; 12,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 18,8</t>
+          <t>-2,22; 18,03</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 36,85</t>
+          <t>-13,02; 35,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 48,41</t>
+          <t>-3,38; 44,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 19,23</t>
+          <t>-10,47; 20,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 26,83</t>
+          <t>-7,77; 25,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 16,49</t>
+          <t>-7,68; 17,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 25,45</t>
+          <t>-2,4; 24,89</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 9,04</t>
+          <t>-13,49; 9,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-34,29; -8,1</t>
+          <t>-34,18; -7,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -2,15</t>
+          <t>-16,31; -1,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-28,49; -10,32</t>
+          <t>-29,12; -10,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 0,25</t>
+          <t>-12,28; 0,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-26,72; -11,45</t>
+          <t>-27,75; -11,83</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 11,94</t>
+          <t>-15,87; 13,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,77; -10,45</t>
+          <t>-40,6; -9,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -2,51</t>
+          <t>-17,6; -1,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,87; -11,47</t>
+          <t>-31,68; -11,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 0,3</t>
+          <t>-13,89; 0,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,65; -14,02</t>
+          <t>-31,12; -14,29</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 13,45</t>
+          <t>-10,99; 12,12</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 0,89</t>
+          <t>-19,74; 1,12</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 0,71</t>
+          <t>-14,42; 0,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -2,86</t>
+          <t>-18,83; -2,3</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 2,46</t>
+          <t>-9,68; 2,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-16,42; -3,9</t>
+          <t>-17,01; -3,85</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 18,51</t>
+          <t>-13,1; 16,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 0,72</t>
+          <t>-24,58; 1,31</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 0,77</t>
+          <t>-17,01; 1,01</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-21,75; -3,62</t>
+          <t>-22,02; -2,96</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 3,11</t>
+          <t>-11,73; 3,36</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-20,16; -5,15</t>
+          <t>-20,39; -5,0</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 3,94</t>
+          <t>-6,75; 4,31</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -5,05</t>
+          <t>-16,37; -5,54</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-7,94; -0,93</t>
+          <t>-7,96; -1,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -4,14</t>
+          <t>-12,15; -4,68</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,19</t>
+          <t>-6,02; -0,32</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -6,29</t>
+          <t>-12,66; -6,49</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 5,22</t>
+          <t>-8,51; 5,81</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -6,77</t>
+          <t>-20,31; -7,17</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,12</t>
+          <t>-9,38; -1,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -5,04</t>
+          <t>-14,25; -5,74</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -0,24</t>
+          <t>-7,27; -0,41</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -7,8</t>
+          <t>-15,16; -8,05</t>
         </is>
       </c>
     </row>
